--- a/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
+++ b/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/PCAPS/pcapsSinAlertas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118FF0E5-5523-4EF6-8FD7-958C31B40C02}"/>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E56D03-8DB8-4488-9C7F-E26C306B5719}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="920" windowWidth="29640" windowHeight="19630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="980" windowWidth="36600" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -986,7 +986,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="100" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>42</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>51</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>63</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>64</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>66</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>67</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>71</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>73</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>75</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>79</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>87</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>88</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>96</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>97</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>98</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="100" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>99</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>104</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>107</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>108</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>110</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>113</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="87.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>115</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>117</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>118</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>119</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>121</v>
       </c>

--- a/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
+++ b/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/PCAPS/pcapsSinAlertas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80E56D03-8DB8-4488-9C7F-E26C306B5719}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8565F819-2AF6-44F1-952D-8D6742D188CF}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="980" windowWidth="36600" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15250" yWindow="610" windowWidth="21940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="144">
   <si>
     <t>Fichero PCAP</t>
   </si>
@@ -111,12 +111,6 @@
     <t>T1499-Syn_suplantacion_[1].pcapng</t>
   </si>
   <si>
-    <t>T1499-Land_[1].pcapng</t>
-  </si>
-  <si>
-    <t>IP.Land</t>
-  </si>
-  <si>
     <t>T1499-Reflexion_synack_[1].pcapng</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>T1112-Modify_registry_[4].pcapng</t>
   </si>
   <si>
-    <t>T1114-Email_collection_remote_email_collection_[4].pcapng</t>
-  </si>
-  <si>
     <t>T1132.001-Standard_Encoding_[5].pcapng</t>
   </si>
   <si>
@@ -198,15 +189,6 @@
     <t>El control de aplicaciones no marca el uso de una extensión, sino el uso de un navegador. No se puede determinar como válida</t>
   </si>
   <si>
-    <t>T1187-Forced_Authentication_[5].pcapng</t>
-  </si>
-  <si>
-    <t>El control de aplicaciones sólo marca la funcionalidad de compartición de archivos, nada más</t>
-  </si>
-  <si>
-    <t>T1187-Forced_Authentication2_[5].pcapng</t>
-  </si>
-  <si>
     <t>T1189-Drive-by_compromise_v2_[4].pcapng</t>
   </si>
   <si>
@@ -216,18 +198,12 @@
     <t>T1197-BITS_Jobs_[5].pcapng</t>
   </si>
   <si>
-    <t>T1199-Trusted_relationship_[4].pcapng</t>
-  </si>
-  <si>
     <t>T1200-Hardware_Additions_[5].pcapng</t>
   </si>
   <si>
     <t>El control de aplicaciones sólo marca el uso de RDP, nada más</t>
   </si>
   <si>
-    <t>T1203-C2018_[6].pcapng</t>
-  </si>
-  <si>
     <t>T1205.001-Port_Knocking_[3].pcapng</t>
   </si>
   <si>
@@ -285,9 +261,6 @@
     <t>T1498.001-TCP_flood-C2018_[6].pcapng</t>
   </si>
   <si>
-    <t>T1498.001-UDP_flood_[2].pcapng</t>
-  </si>
-  <si>
     <t>T1498-Fraggle_[1].pcapng</t>
   </si>
   <si>
@@ -300,9 +273,6 @@
     <t>Slowloris.DoS</t>
   </si>
   <si>
-    <t>T1499-Reseteo_[1].pcapng</t>
-  </si>
-  <si>
     <t>T1499-Dhcp_flood_[1].pcapng</t>
   </si>
   <si>
@@ -315,9 +285,6 @@
     <t>T1499-Mac_spoof_[1].pcapng</t>
   </si>
   <si>
-    <t>T1505.005-Shell_Web_[2].pcapng</t>
-  </si>
-  <si>
     <t>T1534-Internal_spearphishing_[4].pcapng</t>
   </si>
   <si>
@@ -420,18 +387,12 @@
     <t>No se generan alertas y el control de aplicaciones no marca el uso de la funcionalidad de registro remoto</t>
   </si>
   <si>
-    <t>El control de aplicaciones detecta el uso de LDAP, pero no especifica para qué. Tampoco se generan alertas</t>
-  </si>
-  <si>
     <t>El control de aplicaciones sólo detecta el uso de navegadores y protocolos concretos, sin detectar el codificado</t>
   </si>
   <si>
     <t>El control de aplicaciones detecta varios protocolos y llamadas HTTP pero no se detecta la creación de una tarea BITS, ni por IPS ni por APP-CTRL</t>
   </si>
   <si>
-    <t>El control de aplicaciones detecta el uso de RDP, pero no se proporciona más información, por lo que no se identifica con claridad el ataque</t>
-  </si>
-  <si>
     <t>Se desconoce el foco principal del ataque (no cuenta para los análisis)</t>
   </si>
   <si>
@@ -454,9 +415,6 @@
   </si>
   <si>
     <t>Ninguna alerta</t>
-  </si>
-  <si>
-    <t>El control de aplicaciones sólo detecta el uso del navegador</t>
   </si>
   <si>
     <t>El control de aplicaciones sólo detecta el uso de protocolos de mensajería como IMAP y SMTP</t>
@@ -865,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -918,7 +876,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -948,12 +906,12 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -983,12 +941,12 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -1018,12 +976,12 @@
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1050,15 +1008,15 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1085,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1123,7 +1081,7 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1158,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1193,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1228,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1263,12 +1221,12 @@
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B12" s="3">
         <v>450</v>
@@ -1295,18 +1253,18 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1336,12 +1294,12 @@
         <v>14</v>
       </c>
       <c r="L13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1371,7 +1329,7 @@
         <v>14</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1409,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1444,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
@@ -1479,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1514,7 +1472,7 @@
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
@@ -1549,12 +1507,12 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="50" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -1581,161 +1539,161 @@
         <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="3">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>5</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L22" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="3">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3">
+        <v>212</v>
+      </c>
+      <c r="C23" s="3">
+        <v>212</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="4">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4">
-        <v>7</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" t="s">
         <v>55</v>
-      </c>
-      <c r="B24" s="3">
-        <v>212</v>
-      </c>
-      <c r="C24" s="3">
-        <v>212</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="4">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L24" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
@@ -1744,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -1759,12 +1717,12 @@
         <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -1779,7 +1737,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1799,7 +1757,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -1814,7 +1772,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1829,18 +1787,18 @@
         <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
         <v>0</v>
@@ -1849,7 +1807,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G28" s="3">
         <v>0</v>
@@ -1864,18 +1822,18 @@
         <v>14</v>
       </c>
       <c r="L28" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
@@ -1884,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1896,85 +1854,88 @@
         <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L29" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4">
-        <v>3</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
       <c r="K30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="3">
-        <v>116</v>
-      </c>
-      <c r="C31" s="3">
-        <v>116</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="4">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -1989,7 +1950,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2001,15 +1962,15 @@
         <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>136</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2024,7 +1985,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -2036,15 +1997,15 @@
         <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -2059,7 +2020,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -2071,15 +2032,15 @@
         <v>0</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -2094,7 +2055,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2105,25 +2066,22 @@
       <c r="I35" s="3">
         <v>0</v>
       </c>
-      <c r="J35" t="s">
-        <v>72</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B36" s="3">
-        <v>1</v>
+        <v>29179</v>
       </c>
       <c r="C36" s="3">
-        <v>1</v>
+        <v>29179</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -2132,7 +2090,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -2147,18 +2105,18 @@
         <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3">
-        <v>1</v>
+        <v>21711</v>
       </c>
       <c r="C37" s="3">
-        <v>1</v>
+        <v>21711</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -2167,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -2179,21 +2137,21 @@
         <v>0</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="3">
-        <v>1</v>
+        <v>536494</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>536494</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2202,7 +2160,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -2214,126 +2172,126 @@
         <v>0</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="3">
+        <v>110</v>
+      </c>
+      <c r="C39" s="3">
+        <v>110</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="4">
+        <v>6</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="3">
+        <v>1473</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1473</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="3">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="4">
-        <v>4</v>
-      </c>
-      <c r="G39" s="3">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="4">
-        <v>5</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="75" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="3">
-        <v>29179</v>
-      </c>
-      <c r="C41" s="3">
-        <v>29179</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="B42" s="3">
-        <v>21711</v>
+        <v>1</v>
       </c>
       <c r="C42" s="3">
-        <v>21711</v>
+        <v>1</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -2342,7 +2300,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2360,15 +2318,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="B43" s="3">
-        <v>536494</v>
+        <v>1</v>
       </c>
       <c r="C43" s="3">
-        <v>536494</v>
+        <v>1</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -2377,43 +2335,43 @@
         <v>13</v>
       </c>
       <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="3">
+        <v>150</v>
+      </c>
+      <c r="C44" s="3">
+        <v>150</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4">
         <v>6</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3">
-        <v>1</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
@@ -2423,22 +2381,25 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
+      <c r="J44" t="s">
+        <v>81</v>
+      </c>
       <c r="K44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="B45" s="3">
-        <v>110</v>
+        <v>10550</v>
       </c>
       <c r="C45" s="3">
-        <v>110</v>
+        <v>10550</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2447,7 +2408,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2458,22 +2419,25 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
       <c r="K45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3">
-        <v>1473</v>
+        <v>27772</v>
       </c>
       <c r="C46" s="3">
-        <v>1473</v>
+        <v>27772</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2482,7 +2446,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2497,18 +2461,18 @@
         <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B47" s="3">
-        <v>1</v>
+        <v>44878</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>44878</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -2517,7 +2481,7 @@
         <v>13</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2532,12 +2496,12 @@
         <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -2567,12 +2531,12 @@
         <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -2587,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2602,18 +2566,18 @@
         <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="75" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="B50" s="3">
-        <v>150</v>
+        <v>952</v>
       </c>
       <c r="C50" s="3">
-        <v>150</v>
+        <v>952</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -2622,7 +2586,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -2633,321 +2597,312 @@
       <c r="I50" s="3">
         <v>0</v>
       </c>
-      <c r="J50" t="s">
-        <v>90</v>
-      </c>
       <c r="K50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2332</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2332</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="3">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4">
+        <v>9</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="3">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="3">
+        <v>1</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="4">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B51" s="3">
-        <v>10550</v>
-      </c>
-      <c r="C51" s="3">
-        <v>10550</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="4">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>0</v>
-      </c>
-      <c r="H51" s="3">
-        <v>0</v>
-      </c>
-      <c r="I51" s="3">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="B56" s="3">
+        <v>1</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="3">
+        <v>1</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B52" s="3">
-        <v>27772</v>
-      </c>
-      <c r="C52" s="3">
-        <v>27772</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="4">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="B58" s="3">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="4">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="3">
-        <v>44878</v>
-      </c>
-      <c r="C53" s="3">
-        <v>44878</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="4">
-        <v>4</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="3">
-        <v>0</v>
-      </c>
-      <c r="I53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="4">
+      <c r="B59" s="3">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="4">
         <v>2</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L54" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="3">
-        <v>0</v>
-      </c>
-      <c r="I55" s="3">
-        <v>0</v>
-      </c>
-      <c r="J55" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="3">
-        <v>1</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="4">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="3">
-        <v>0</v>
-      </c>
-      <c r="I56" s="3">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="3">
-        <v>952</v>
-      </c>
-      <c r="C57" s="3">
-        <v>952</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B58" s="3">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3">
-        <v>1</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="4">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="3">
-        <v>2332</v>
-      </c>
-      <c r="C59" s="3">
-        <v>2332</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="4">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -2961,12 +2916,12 @@
         <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -2996,12 +2951,12 @@
         <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3016,7 +2971,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3028,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L61" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -3051,7 +3006,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3066,123 +3021,126 @@
         <v>14</v>
       </c>
       <c r="L62" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="4">
+        <v>6</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="3">
+        <v>123</v>
+      </c>
+      <c r="C64" s="3">
+        <v>123</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="4">
+        <v>5</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3">
-        <v>1</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="4">
-        <v>1</v>
-      </c>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L63" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="B65" s="3">
+        <v>1</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="4">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3">
-        <v>1</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3">
-        <v>0</v>
-      </c>
-      <c r="I64" s="3">
-        <v>0</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L64" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3">
-        <v>1</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <v>0</v>
-      </c>
-      <c r="I65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L65" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="B66" s="3">
-        <v>1</v>
+        <v>81521</v>
       </c>
       <c r="C66" s="3">
-        <v>1</v>
+        <v>81521</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -3191,7 +3149,7 @@
         <v>13</v>
       </c>
       <c r="F66" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -3206,12 +3164,12 @@
         <v>14</v>
       </c>
       <c r="L66" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -3226,7 +3184,7 @@
         <v>13</v>
       </c>
       <c r="F67" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -3241,12 +3199,12 @@
         <v>14</v>
       </c>
       <c r="L67" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -3276,12 +3234,12 @@
         <v>14</v>
       </c>
       <c r="L68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -3308,15 +3266,15 @@
         <v>0</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L69" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -3331,7 +3289,7 @@
         <v>13</v>
       </c>
       <c r="F70" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3343,21 +3301,21 @@
         <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71" s="3">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C71" s="3">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -3366,7 +3324,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -3381,18 +3339,18 @@
         <v>14</v>
       </c>
       <c r="L71" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C72" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -3416,18 +3374,18 @@
         <v>14</v>
       </c>
       <c r="L72" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B73" s="3">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C73" s="3">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -3436,7 +3394,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -3447,19 +3405,16 @@
       <c r="I73" s="3">
         <v>0</v>
       </c>
-      <c r="J73" t="s">
-        <v>109</v>
-      </c>
       <c r="K73" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L73" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3486,21 +3441,21 @@
         <v>0</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L74" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="B75" s="3">
-        <v>81521</v>
+        <v>1</v>
       </c>
       <c r="C75" s="3">
-        <v>81521</v>
+        <v>1</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -3509,7 +3464,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -3524,12 +3479,12 @@
         <v>14</v>
       </c>
       <c r="L75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="50" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -3544,78 +3499,78 @@
         <v>13</v>
       </c>
       <c r="F76" s="4">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="3">
+        <v>41</v>
+      </c>
+      <c r="C77" s="3">
+        <v>41</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="4">
+        <v>4</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1</v>
+      </c>
+      <c r="C78" s="3">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="4">
         <v>2</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3">
-        <v>1</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="4">
-        <v>2</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="75" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="4">
-        <v>1</v>
-      </c>
       <c r="G78" s="3">
         <v>0</v>
       </c>
@@ -3626,21 +3581,21 @@
         <v>0</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L78" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -3649,7 +3604,7 @@
         <v>13</v>
       </c>
       <c r="F79" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -3661,330 +3616,15 @@
         <v>0</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="L79" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="75" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B80" s="3">
-        <v>181</v>
-      </c>
-      <c r="C80" s="3">
-        <v>181</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="4">
-        <v>1</v>
-      </c>
-      <c r="G80" s="3">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3">
-        <v>0</v>
-      </c>
-      <c r="I80" s="3">
-        <v>0</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L80" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" s="3">
-        <v>2</v>
-      </c>
-      <c r="C81" s="3">
-        <v>2</v>
-      </c>
-      <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F81" s="4">
-        <v>6</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B82" s="3">
-        <v>1</v>
-      </c>
-      <c r="C82" s="3">
-        <v>1</v>
-      </c>
-      <c r="D82" s="3">
-        <v>0</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="4">
-        <v>2</v>
-      </c>
-      <c r="G82" s="3">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
-        <v>0</v>
-      </c>
-      <c r="I82" s="3">
-        <v>0</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L82" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B83" s="3">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3">
-        <v>1</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L83" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="50" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3">
-        <v>1</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="4">
-        <v>0</v>
-      </c>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
-        <v>0</v>
-      </c>
-      <c r="I84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L84" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3">
-        <v>1</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="4">
-        <v>1</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
-        <v>0</v>
-      </c>
-      <c r="I85" s="3">
-        <v>0</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" s="3">
-        <v>41</v>
-      </c>
-      <c r="C86" s="3">
-        <v>41</v>
-      </c>
-      <c r="D86" s="3">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="4">
-        <v>4</v>
-      </c>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
-        <v>0</v>
-      </c>
-      <c r="I86" s="3">
-        <v>0</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L86" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3">
-        <v>1</v>
-      </c>
-      <c r="D87" s="3">
-        <v>0</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="4">
-        <v>2</v>
-      </c>
-      <c r="G87" s="3">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
-        <v>0</v>
-      </c>
-      <c r="I87" s="3">
-        <v>0</v>
-      </c>
-      <c r="K87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L87" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" s="3">
-        <v>2</v>
-      </c>
-      <c r="C88" s="3">
-        <v>2</v>
-      </c>
-      <c r="D88" s="3">
-        <v>0</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="4">
-        <v>9</v>
-      </c>
-      <c r="G88" s="3">
-        <v>0</v>
-      </c>
-      <c r="H88" s="3">
-        <v>0</v>
-      </c>
-      <c r="I88" s="3">
-        <v>0</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L88" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L88">
-    <sortCondition ref="A2:A88"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L79">
+    <sortCondition ref="A2:A79"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J15" r:id="rId1" xr:uid="{AEF5654E-B282-47F2-9EFE-A7AFA3BCED75}"/>

--- a/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
+++ b/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/PCAPS/pcapsSinAlertas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8565F819-2AF6-44F1-952D-8D6742D188CF}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268EB813-378D-4914-98BF-B2AAFDAFCA37}"/>
   <bookViews>
-    <workbookView xWindow="15250" yWindow="610" windowWidth="21940" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="630" windowWidth="25780" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="144">
   <si>
     <t>Fichero PCAP</t>
   </si>
@@ -231,9 +231,6 @@
     <t>T1221-Template_Injection_[5].pcapng</t>
   </si>
   <si>
-    <t>El control de aplicaciones sólo detecta navegadores y otros</t>
-  </si>
-  <si>
     <t>T1482-Domain_trust_discovery_[4].pcapng</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>El control de aplicaciones sólo detecta el uso de navegadores y protocolos concretos, sin detectar el codificado</t>
   </si>
   <si>
-    <t>El control de aplicaciones detecta varios protocolos y llamadas HTTP pero no se detecta la creación de una tarea BITS, ni por IPS ni por APP-CTRL</t>
-  </si>
-  <si>
     <t>Se desconoce el foco principal del ataque (no cuenta para los análisis)</t>
   </si>
   <si>
@@ -423,9 +417,6 @@
     <t>El control de aplicaciones sólo detecta protocolos y herramientas genéricas, no identifica el ataque</t>
   </si>
   <si>
-    <t>El control de aplicaciones sólo detecta el uso de Wake.On.LAN</t>
-  </si>
-  <si>
     <t>Ninguna alerta relevante</t>
   </si>
   <si>
@@ -457,6 +448,15 @@
   </si>
   <si>
     <t>Sólo se detectan protocolos, no el ataque como tal</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo detecta navegadores y otros. El motor IPS detecta un ataque colateral pero no el principal</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones detecta varios protocolos y llamadas HTTP pero no se detecta la creación de una tarea BITS, ni por IPS ni por APP-CTRL. El motor IPS detecta un ataque colateral, pero no la creación de la tarea BITS</t>
+  </si>
+  <si>
+    <t>El control de aplicaciones sólo detecta el uso de Wake.On.LAN y el motor IPS sólo detecta el uso de Shell Remoto (ataque colateral)</t>
   </si>
 </sst>
 </file>
@@ -825,15 +825,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="106.90625" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" customWidth="1"/>
     <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -906,7 +907,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" x14ac:dyDescent="0.35">
@@ -941,7 +942,7 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1081,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1116,7 +1117,7 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1151,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1186,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1221,7 +1222,7 @@
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1259,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1367,7 +1368,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1402,7 +1403,7 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
@@ -1437,7 +1438,7 @@
         <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1472,7 +1473,7 @@
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
@@ -1507,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1542,7 +1543,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1577,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
@@ -1698,8 +1699,8 @@
       <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>13</v>
+      <c r="E25" s="3">
+        <v>12449</v>
       </c>
       <c r="F25" s="4">
         <v>9</v>
@@ -1717,7 +1718,7 @@
         <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1787,7 +1788,7 @@
         <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -1946,8 +1947,8 @@
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>13</v>
+      <c r="E32" s="3">
+        <v>12449</v>
       </c>
       <c r="F32" s="4">
         <v>6</v>
@@ -1965,12 +1966,12 @@
         <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -2000,12 +2001,12 @@
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3">
         <v>1</v>
@@ -2035,12 +2036,12 @@
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3">
         <v>1</v>
@@ -2070,12 +2071,12 @@
         <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="3">
         <v>29179</v>
@@ -2105,12 +2106,12 @@
         <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3">
         <v>21711</v>
@@ -2140,12 +2141,12 @@
         <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3">
         <v>536494</v>
@@ -2175,12 +2176,12 @@
         <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3">
         <v>110</v>
@@ -2210,12 +2211,12 @@
         <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" s="3">
         <v>1473</v>
@@ -2245,12 +2246,12 @@
         <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -2280,12 +2281,12 @@
         <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -2315,7 +2316,7 @@
         <v>14</v>
       </c>
       <c r="L42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -2350,12 +2351,12 @@
         <v>14</v>
       </c>
       <c r="L43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3">
         <v>150</v>
@@ -2382,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -2426,12 +2427,12 @@
         <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="3">
         <v>27772</v>
@@ -2461,12 +2462,12 @@
         <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" s="3">
         <v>44878</v>
@@ -2496,12 +2497,12 @@
         <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B48" s="3">
         <v>1</v>
@@ -2531,12 +2532,12 @@
         <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -2566,7 +2567,7 @@
         <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -2601,7 +2602,7 @@
         <v>14</v>
       </c>
       <c r="L50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -2636,12 +2637,12 @@
         <v>14</v>
       </c>
       <c r="L51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -2671,12 +2672,12 @@
         <v>38</v>
       </c>
       <c r="L52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2706,12 +2707,12 @@
         <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -2722,8 +2723,8 @@
       <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>13</v>
+      <c r="E54" s="3">
+        <v>12449</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2741,12 +2742,12 @@
         <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2776,7 +2777,7 @@
         <v>14</v>
       </c>
       <c r="L55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -2811,12 +2812,12 @@
         <v>14</v>
       </c>
       <c r="L56" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -2846,12 +2847,12 @@
         <v>14</v>
       </c>
       <c r="L57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
@@ -2881,12 +2882,12 @@
         <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -2916,12 +2917,12 @@
         <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="3">
         <v>1</v>
@@ -2951,12 +2952,12 @@
         <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -2986,12 +2987,12 @@
         <v>14</v>
       </c>
       <c r="L61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B62" s="3">
         <v>2</v>
@@ -3021,12 +3022,12 @@
         <v>14</v>
       </c>
       <c r="L62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -3056,12 +3057,12 @@
         <v>14</v>
       </c>
       <c r="L63" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" s="3">
         <v>123</v>
@@ -3088,18 +3089,18 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K64" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -3129,12 +3130,12 @@
         <v>38</v>
       </c>
       <c r="L65" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="3">
         <v>81521</v>
@@ -3164,12 +3165,12 @@
         <v>14</v>
       </c>
       <c r="L66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -3199,12 +3200,12 @@
         <v>14</v>
       </c>
       <c r="L67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -3234,12 +3235,12 @@
         <v>14</v>
       </c>
       <c r="L68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" s="3">
         <v>1</v>
@@ -3269,12 +3270,12 @@
         <v>38</v>
       </c>
       <c r="L69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" s="3">
         <v>1</v>
@@ -3304,12 +3305,12 @@
         <v>38</v>
       </c>
       <c r="L70" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B71" s="3">
         <v>181</v>
@@ -3339,12 +3340,12 @@
         <v>14</v>
       </c>
       <c r="L71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" s="3">
         <v>2</v>
@@ -3374,12 +3375,12 @@
         <v>14</v>
       </c>
       <c r="L72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -3409,12 +3410,12 @@
         <v>38</v>
       </c>
       <c r="L73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74" s="3">
         <v>1</v>
@@ -3444,7 +3445,7 @@
         <v>38</v>
       </c>
       <c r="L74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -3479,12 +3480,12 @@
         <v>14</v>
       </c>
       <c r="L75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B76" s="3">
         <v>1</v>
@@ -3514,12 +3515,12 @@
         <v>38</v>
       </c>
       <c r="L76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B77" s="3">
         <v>41</v>
@@ -3549,12 +3550,12 @@
         <v>38</v>
       </c>
       <c r="L77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B78" s="3">
         <v>1</v>
@@ -3584,12 +3585,12 @@
         <v>14</v>
       </c>
       <c r="L78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B79" s="3">
         <v>2</v>
@@ -3619,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="L79" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
+++ b/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/PCAPS/pcapsSinAlertas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{268EB813-378D-4914-98BF-B2AAFDAFCA37}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33DD170B-95E5-410C-82AA-B88E4902D740}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="630" windowWidth="25780" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14210" yWindow="840" windowWidth="25780" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="141">
   <si>
     <t>Fichero PCAP</t>
   </si>
@@ -252,12 +252,6 @@
     <t>T1498.001-UDP_flood_2-C2018_[6].pcapng</t>
   </si>
   <si>
-    <t>T1498.001-HTTP_flood-C2018_[6].pcapng</t>
-  </si>
-  <si>
-    <t>T1498.001-TCP_flood-C2018_[6].pcapng</t>
-  </si>
-  <si>
     <t>T1498-Fraggle_[1].pcapng</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
   </si>
   <si>
     <t>T1599-NBB2_[5].pcapng</t>
-  </si>
-  <si>
-    <t>T1612-BuildImageOnHostLocal_[5].pcapng</t>
   </si>
   <si>
     <t>T1615-Group_Policy_Discovery_[5].pcapng</t>
@@ -823,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -907,7 +898,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" x14ac:dyDescent="0.35">
@@ -942,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1082,7 +1073,7 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1117,7 +1108,7 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1152,7 +1143,7 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1187,7 +1178,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1222,7 +1213,7 @@
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1260,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1368,7 +1359,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1403,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
@@ -1438,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1473,7 +1464,7 @@
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
@@ -1508,7 +1499,7 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1543,7 +1534,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1578,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
@@ -1718,7 +1709,7 @@
         <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -1788,7 +1779,7 @@
         <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -1966,7 +1957,7 @@
         <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2036,7 +2027,7 @@
         <v>38</v>
       </c>
       <c r="L34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2071,18 +2062,18 @@
         <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3">
-        <v>29179</v>
+        <v>21711</v>
       </c>
       <c r="C36" s="3">
-        <v>29179</v>
+        <v>21711</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -2106,18 +2097,18 @@
         <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3">
-        <v>21711</v>
+        <v>110</v>
       </c>
       <c r="C37" s="3">
-        <v>21711</v>
+        <v>110</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -2126,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -2141,18 +2132,18 @@
         <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3">
-        <v>536494</v>
+        <v>1473</v>
       </c>
       <c r="C38" s="3">
-        <v>536494</v>
+        <v>1473</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2161,7 +2152,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G38" s="3">
         <v>0</v>
@@ -2176,18 +2167,18 @@
         <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C39" s="3">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="D39" s="3">
         <v>0</v>
@@ -2196,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="F39" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -2211,18 +2202,18 @@
         <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3">
-        <v>1473</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3">
-        <v>1473</v>
+        <v>1</v>
       </c>
       <c r="D40" s="3">
         <v>0</v>
@@ -2231,7 +2222,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -2246,12 +2237,12 @@
         <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -2266,7 +2257,7 @@
         <v>13</v>
       </c>
       <c r="F41" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2281,53 +2272,56 @@
         <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="3">
+        <v>150</v>
+      </c>
+      <c r="C42" s="3">
+        <v>150</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="4">
+        <v>6</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="4">
-        <v>2</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>10550</v>
       </c>
       <c r="C43" s="3">
-        <v>1</v>
+        <v>10550</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -2347,22 +2341,25 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
       <c r="K43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L43" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3">
-        <v>150</v>
+        <v>27772</v>
       </c>
       <c r="C44" s="3">
-        <v>150</v>
+        <v>27772</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2371,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="F44" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2382,25 +2379,22 @@
       <c r="I44" s="3">
         <v>0</v>
       </c>
-      <c r="J44" t="s">
-        <v>80</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B45" s="3">
-        <v>10550</v>
+        <v>44878</v>
       </c>
       <c r="C45" s="3">
-        <v>10550</v>
+        <v>44878</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2409,7 +2403,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2420,25 +2414,22 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" t="s">
-        <v>30</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B46" s="3">
-        <v>27772</v>
+        <v>1</v>
       </c>
       <c r="C46" s="3">
-        <v>27772</v>
+        <v>1</v>
       </c>
       <c r="D46" s="3">
         <v>0</v>
@@ -2447,7 +2438,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2462,7 +2453,7 @@
         <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -2470,10 +2461,10 @@
         <v>82</v>
       </c>
       <c r="B47" s="3">
-        <v>44878</v>
+        <v>1</v>
       </c>
       <c r="C47" s="3">
-        <v>44878</v>
+        <v>1</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -2482,7 +2473,7 @@
         <v>13</v>
       </c>
       <c r="F47" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2497,18 +2488,18 @@
         <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B48" s="3">
-        <v>1</v>
+        <v>952</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>952</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -2517,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="F48" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2532,18 +2523,18 @@
         <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="B49" s="3">
-        <v>1</v>
+        <v>2332</v>
       </c>
       <c r="C49" s="3">
-        <v>1</v>
+        <v>2332</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -2552,7 +2543,7 @@
         <v>13</v>
       </c>
       <c r="F49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2567,18 +2558,18 @@
         <v>14</v>
       </c>
       <c r="L49" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B50" s="3">
-        <v>952</v>
+        <v>1</v>
       </c>
       <c r="C50" s="3">
-        <v>952</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -2587,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -2599,21 +2590,21 @@
         <v>0</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="B51" s="3">
-        <v>2332</v>
+        <v>1</v>
       </c>
       <c r="C51" s="3">
-        <v>2332</v>
+        <v>1</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -2622,7 +2613,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -2637,7 +2628,7 @@
         <v>14</v>
       </c>
       <c r="L51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -2653,11 +2644,11 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>13</v>
+      <c r="E52" s="3">
+        <v>12449</v>
       </c>
       <c r="F52" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2669,15 +2660,15 @@
         <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L52" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2692,7 +2683,7 @@
         <v>13</v>
       </c>
       <c r="F53" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -2707,12 +2698,12 @@
         <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -2723,11 +2714,11 @@
       <c r="D54" s="3">
         <v>0</v>
       </c>
-      <c r="E54" s="3">
-        <v>12449</v>
+      <c r="E54" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F54" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2742,12 +2733,12 @@
         <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2777,12 +2768,12 @@
         <v>14</v>
       </c>
       <c r="L55" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -2797,7 +2788,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G56" s="3">
         <v>0</v>
@@ -2817,7 +2808,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -2832,7 +2823,7 @@
         <v>13</v>
       </c>
       <c r="F57" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2847,12 +2838,12 @@
         <v>14</v>
       </c>
       <c r="L57" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B58" s="3">
         <v>1</v>
@@ -2867,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="F58" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2882,12 +2873,12 @@
         <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B59" s="3">
         <v>1</v>
@@ -2917,18 +2908,18 @@
         <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -2937,7 +2928,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -2952,12 +2943,12 @@
         <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -2972,7 +2963,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2987,7 +2978,7 @@
         <v>14</v>
       </c>
       <c r="L61" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -2995,10 +2986,10 @@
         <v>94</v>
       </c>
       <c r="B62" s="3">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -3007,7 +2998,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3017,6 +3008,9 @@
       </c>
       <c r="I62" s="3">
         <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>95</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>14</v>
@@ -3027,7 +3021,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" s="3">
         <v>1</v>
@@ -3042,7 +3036,7 @@
         <v>13</v>
       </c>
       <c r="F63" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -3054,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L63" t="s">
         <v>132</v>
@@ -3062,13 +3056,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B64" s="3">
-        <v>123</v>
+        <v>81521</v>
       </c>
       <c r="C64" s="3">
-        <v>123</v>
+        <v>81521</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
@@ -3077,7 +3071,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -3088,19 +3082,16 @@
       <c r="I64" s="3">
         <v>0</v>
       </c>
-      <c r="J64" t="s">
-        <v>97</v>
-      </c>
       <c r="K64" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="3">
         <v>1</v>
@@ -3115,7 +3106,7 @@
         <v>13</v>
       </c>
       <c r="F65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" s="3">
         <v>0</v>
@@ -3127,21 +3118,21 @@
         <v>0</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3">
-        <v>81521</v>
+        <v>1</v>
       </c>
       <c r="C66" s="3">
-        <v>81521</v>
+        <v>1</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -3150,7 +3141,7 @@
         <v>13</v>
       </c>
       <c r="F66" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -3165,12 +3156,12 @@
         <v>14</v>
       </c>
       <c r="L66" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3">
         <v>1</v>
@@ -3185,7 +3176,7 @@
         <v>13</v>
       </c>
       <c r="F67" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -3197,15 +3188,15 @@
         <v>0</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L67" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B68" s="3">
         <v>1</v>
@@ -3220,7 +3211,7 @@
         <v>13</v>
       </c>
       <c r="F68" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -3232,10 +3223,10 @@
         <v>0</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L68" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -3243,10 +3234,10 @@
         <v>102</v>
       </c>
       <c r="B69" s="3">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C69" s="3">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -3267,10 +3258,10 @@
         <v>0</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L69" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -3278,10 +3269,10 @@
         <v>103</v>
       </c>
       <c r="B70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C70" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D70" s="3">
         <v>0</v>
@@ -3290,7 +3281,7 @@
         <v>13</v>
       </c>
       <c r="F70" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3302,10 +3293,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -3313,10 +3304,10 @@
         <v>104</v>
       </c>
       <c r="B71" s="3">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="C71" s="3">
-        <v>181</v>
+        <v>1</v>
       </c>
       <c r="D71" s="3">
         <v>0</v>
@@ -3325,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -3337,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L71" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -3348,10 +3339,10 @@
         <v>105</v>
       </c>
       <c r="B72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="3">
         <v>0</v>
@@ -3360,7 +3351,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -3372,15 +3363,15 @@
         <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L72" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="B73" s="3">
         <v>1</v>
@@ -3395,7 +3386,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -3407,21 +3398,21 @@
         <v>0</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L73" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" s="3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C74" s="3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -3430,7 +3421,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -3445,12 +3436,12 @@
         <v>38</v>
       </c>
       <c r="L74" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="B75" s="3">
         <v>1</v>
@@ -3465,7 +3456,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -3480,18 +3471,18 @@
         <v>14</v>
       </c>
       <c r="L75" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C76" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76" s="3">
         <v>0</v>
@@ -3500,7 +3491,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -3512,120 +3503,15 @@
         <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77" s="3">
-        <v>41</v>
-      </c>
-      <c r="C77" s="3">
-        <v>41</v>
-      </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="4">
-        <v>4</v>
-      </c>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
-        <v>0</v>
-      </c>
-      <c r="I77" s="3">
-        <v>0</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B78" s="3">
-        <v>1</v>
-      </c>
-      <c r="C78" s="3">
-        <v>1</v>
-      </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="4">
-        <v>2</v>
-      </c>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
-        <v>0</v>
-      </c>
-      <c r="I78" s="3">
-        <v>0</v>
-      </c>
-      <c r="K78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B79" s="3">
-        <v>2</v>
-      </c>
-      <c r="C79" s="3">
-        <v>2</v>
-      </c>
-      <c r="D79" s="3">
-        <v>0</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="4">
-        <v>9</v>
-      </c>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
-        <v>0</v>
-      </c>
-      <c r="I79" s="3">
-        <v>0</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L79" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L79">
-    <sortCondition ref="A2:A79"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L76">
+    <sortCondition ref="A2:A76"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J15" r:id="rId1" xr:uid="{AEF5654E-B282-47F2-9EFE-A7AFA3BCED75}"/>

--- a/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
+++ b/Estudio-FG/pcapsSinAlertas/ataques_sin_detecciones_FG_SinAlertas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/javgarbor2_alum_us_es/Documents/US/TFG/Doc-Analisis_con_FG/DETECCIONES/PCAPS/pcapsSinAlertas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33DD170B-95E5-410C-82AA-B88E4902D740}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC104898E15E56025BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D182DC72-7036-41B2-BEAD-0AE2DF14B181}"/>
   <bookViews>
-    <workbookView xWindow="14210" yWindow="840" windowWidth="25780" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="930" windowWidth="25780" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="139">
   <si>
     <t>Fichero PCAP</t>
   </si>
@@ -195,9 +195,6 @@
     <t>El control de aplicaciones sólo marca el uso del navegador y las peticiones HTTP</t>
   </si>
   <si>
-    <t>T1197-BITS_Jobs_[5].pcapng</t>
-  </si>
-  <si>
     <t>T1200-Hardware_Additions_[5].pcapng</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
   </si>
   <si>
     <t>El control de aplicaciones sólo detecta navegadores y otros. El motor IPS detecta un ataque colateral pero no el principal</t>
-  </si>
-  <si>
-    <t>El control de aplicaciones detecta varios protocolos y llamadas HTTP pero no se detecta la creación de una tarea BITS, ni por IPS ni por APP-CTRL. El motor IPS detecta un ataque colateral, pero no la creación de la tarea BITS</t>
   </si>
   <si>
     <t>El control de aplicaciones sólo detecta el uso de Wake.On.LAN y el motor IPS sólo detecta el uso de Shell Remoto (ataque colateral)</t>
@@ -814,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="100" x14ac:dyDescent="0.35">
@@ -933,7 +927,7 @@
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1073,7 +1067,7 @@
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1108,7 +1102,7 @@
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1143,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1178,7 +1172,7 @@
         <v>14</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1213,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1251,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1359,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1394,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
@@ -1429,7 +1423,7 @@
         <v>14</v>
       </c>
       <c r="L17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1464,7 +1458,7 @@
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="37.5" x14ac:dyDescent="0.35">
@@ -1499,7 +1493,7 @@
         <v>14</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="50" x14ac:dyDescent="0.35">
@@ -1534,7 +1528,7 @@
         <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -1569,7 +1563,7 @@
         <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="62.5" x14ac:dyDescent="0.35">
@@ -1682,19 +1676,19 @@
         <v>56</v>
       </c>
       <c r="B25" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
         <v>0</v>
       </c>
-      <c r="E25" s="3">
-        <v>12449</v>
+      <c r="E25" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F25" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
@@ -1709,12 +1703,12 @@
         <v>14</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -1729,7 +1723,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>0</v>
@@ -1744,12 +1738,12 @@
         <v>14</v>
       </c>
       <c r="L26" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -1764,7 +1758,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="3">
         <v>0</v>
@@ -1779,12 +1773,12 @@
         <v>14</v>
       </c>
       <c r="L27" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -1814,47 +1808,50 @@
         <v>14</v>
       </c>
       <c r="L28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
         <v>61</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="4">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -1869,7 +1866,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
@@ -1880,19 +1877,16 @@
       <c r="I30" s="3">
         <v>0</v>
       </c>
-      <c r="J30" t="s">
-        <v>64</v>
-      </c>
       <c r="K30" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B31" s="3">
         <v>1</v>
@@ -1903,11 +1897,11 @@
       <c r="D31" s="3">
         <v>0</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>13</v>
+      <c r="E31" s="3">
+        <v>12449</v>
       </c>
       <c r="F31" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G31" s="3">
         <v>0</v>
@@ -1919,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -1938,11 +1932,11 @@
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3">
-        <v>12449</v>
+      <c r="E32" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F32" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1957,12 +1951,12 @@
         <v>38</v>
       </c>
       <c r="L32" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3">
         <v>1</v>
@@ -1977,7 +1971,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G33" s="3">
         <v>0</v>
@@ -1992,7 +1986,7 @@
         <v>38</v>
       </c>
       <c r="L33" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2012,7 +2006,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3">
         <v>0</v>
@@ -2024,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L34" t="s">
         <v>119</v>
@@ -2035,10 +2029,10 @@
         <v>71</v>
       </c>
       <c r="B35" s="3">
-        <v>1</v>
+        <v>21711</v>
       </c>
       <c r="C35" s="3">
-        <v>1</v>
+        <v>21711</v>
       </c>
       <c r="D35" s="3">
         <v>0</v>
@@ -2047,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35" s="3">
         <v>0</v>
@@ -2062,7 +2056,7 @@
         <v>14</v>
       </c>
       <c r="L35" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2070,10 +2064,10 @@
         <v>72</v>
       </c>
       <c r="B36" s="3">
-        <v>21711</v>
+        <v>110</v>
       </c>
       <c r="C36" s="3">
-        <v>21711</v>
+        <v>110</v>
       </c>
       <c r="D36" s="3">
         <v>0</v>
@@ -2082,7 +2076,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G36" s="3">
         <v>0</v>
@@ -2097,7 +2091,7 @@
         <v>14</v>
       </c>
       <c r="L36" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2105,10 +2099,10 @@
         <v>73</v>
       </c>
       <c r="B37" s="3">
-        <v>110</v>
+        <v>1473</v>
       </c>
       <c r="C37" s="3">
-        <v>110</v>
+        <v>1473</v>
       </c>
       <c r="D37" s="3">
         <v>0</v>
@@ -2117,7 +2111,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G37" s="3">
         <v>0</v>
@@ -2132,7 +2126,7 @@
         <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2140,10 +2134,10 @@
         <v>74</v>
       </c>
       <c r="B38" s="3">
-        <v>1473</v>
+        <v>1</v>
       </c>
       <c r="C38" s="3">
-        <v>1473</v>
+        <v>1</v>
       </c>
       <c r="D38" s="3">
         <v>0</v>
@@ -2187,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="F39" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
@@ -2202,12 +2196,12 @@
         <v>14</v>
       </c>
       <c r="L39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B40" s="3">
         <v>1</v>
@@ -2222,7 +2216,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
@@ -2237,18 +2231,18 @@
         <v>14</v>
       </c>
       <c r="L40" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B41" s="3">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C41" s="3">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
@@ -2257,7 +2251,7 @@
         <v>13</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2268,22 +2262,25 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
+      <c r="J41" t="s">
+        <v>77</v>
+      </c>
       <c r="K41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L41" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B42" s="3">
-        <v>150</v>
+        <v>10550</v>
       </c>
       <c r="C42" s="3">
-        <v>150</v>
+        <v>10550</v>
       </c>
       <c r="D42" s="3">
         <v>0</v>
@@ -2292,7 +2289,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2304,24 +2301,24 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B43" s="3">
-        <v>10550</v>
+        <v>27772</v>
       </c>
       <c r="C43" s="3">
-        <v>10550</v>
+        <v>27772</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
@@ -2330,7 +2327,7 @@
         <v>13</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2341,25 +2338,22 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" t="s">
-        <v>30</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" s="3">
-        <v>27772</v>
+        <v>44878</v>
       </c>
       <c r="C44" s="3">
-        <v>27772</v>
+        <v>44878</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
@@ -2368,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="F44" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
@@ -2383,18 +2377,18 @@
         <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="3">
-        <v>44878</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3">
-        <v>44878</v>
+        <v>1</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
@@ -2403,7 +2397,7 @@
         <v>13</v>
       </c>
       <c r="F45" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2418,12 +2412,12 @@
         <v>14</v>
       </c>
       <c r="L45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="3">
         <v>1</v>
@@ -2438,7 +2432,7 @@
         <v>13</v>
       </c>
       <c r="F46" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2453,18 +2447,18 @@
         <v>14</v>
       </c>
       <c r="L46" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B47" s="3">
-        <v>1</v>
+        <v>952</v>
       </c>
       <c r="C47" s="3">
-        <v>1</v>
+        <v>952</v>
       </c>
       <c r="D47" s="3">
         <v>0</v>
@@ -2473,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="F47" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -2488,18 +2482,18 @@
         <v>14</v>
       </c>
       <c r="L47" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="3">
-        <v>952</v>
+        <v>2332</v>
       </c>
       <c r="C48" s="3">
-        <v>952</v>
+        <v>2332</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
@@ -2523,18 +2517,18 @@
         <v>14</v>
       </c>
       <c r="L48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B49" s="3">
-        <v>2332</v>
+        <v>1</v>
       </c>
       <c r="C49" s="3">
-        <v>2332</v>
+        <v>1</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
@@ -2543,7 +2537,7 @@
         <v>13</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2555,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L49" t="s">
         <v>124</v>
@@ -2578,7 +2572,7 @@
         <v>13</v>
       </c>
       <c r="F50" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G50" s="3">
         <v>0</v>
@@ -2590,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L50" t="s">
         <v>125</v>
@@ -2609,11 +2603,11 @@
       <c r="D51" s="3">
         <v>0</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>13</v>
+      <c r="E51" s="3">
+        <v>12449</v>
       </c>
       <c r="F51" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G51" s="3">
         <v>0</v>
@@ -2628,12 +2622,12 @@
         <v>14</v>
       </c>
       <c r="L51" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -2644,8 +2638,8 @@
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>12449</v>
+      <c r="E52" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2663,12 +2657,12 @@
         <v>14</v>
       </c>
       <c r="L52" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B53" s="3">
         <v>1</v>
@@ -2683,7 +2677,7 @@
         <v>13</v>
       </c>
       <c r="F53" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -2698,12 +2692,12 @@
         <v>14</v>
       </c>
       <c r="L53" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B54" s="3">
         <v>1</v>
@@ -2718,7 +2712,7 @@
         <v>13</v>
       </c>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" s="3">
         <v>0</v>
@@ -2733,12 +2727,12 @@
         <v>14</v>
       </c>
       <c r="L54" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B55" s="3">
         <v>1</v>
@@ -2753,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="F55" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" s="3">
         <v>0</v>
@@ -2768,12 +2762,12 @@
         <v>14</v>
       </c>
       <c r="L55" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="3">
         <v>1</v>
@@ -2788,7 +2782,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G56" s="3">
         <v>0</v>
@@ -2808,7 +2802,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B57" s="3">
         <v>1</v>
@@ -2823,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="F57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2838,7 +2832,7 @@
         <v>14</v>
       </c>
       <c r="L57" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -2858,7 +2852,7 @@
         <v>13</v>
       </c>
       <c r="F58" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2873,18 +2867,18 @@
         <v>14</v>
       </c>
       <c r="L58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -2893,7 +2887,7 @@
         <v>13</v>
       </c>
       <c r="F59" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2908,7 +2902,7 @@
         <v>14</v>
       </c>
       <c r="L59" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -2916,10 +2910,10 @@
         <v>92</v>
       </c>
       <c r="B60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="3">
         <v>0</v>
@@ -2928,7 +2922,7 @@
         <v>13</v>
       </c>
       <c r="F60" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
@@ -2943,7 +2937,7 @@
         <v>14</v>
       </c>
       <c r="L60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -2951,10 +2945,10 @@
         <v>93</v>
       </c>
       <c r="B61" s="3">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C61" s="3">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="D61" s="3">
         <v>0</v>
@@ -2963,7 +2957,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2973,6 +2967,9 @@
       </c>
       <c r="I61" s="3">
         <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
       </c>
       <c r="K61" s="3" t="s">
         <v>14</v>
@@ -2983,13 +2980,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" s="3">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C62" s="3">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
@@ -2998,7 +2995,7 @@
         <v>13</v>
       </c>
       <c r="F62" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3009,25 +3006,22 @@
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" t="s">
-        <v>95</v>
-      </c>
       <c r="K62" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="3">
-        <v>1</v>
+        <v>81521</v>
       </c>
       <c r="C63" s="3">
-        <v>1</v>
+        <v>81521</v>
       </c>
       <c r="D63" s="3">
         <v>0</v>
@@ -3036,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="F63" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
@@ -3048,21 +3042,21 @@
         <v>0</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L63" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B64" s="3">
-        <v>81521</v>
+        <v>1</v>
       </c>
       <c r="C64" s="3">
-        <v>81521</v>
+        <v>1</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
@@ -3071,7 +3065,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3">
         <v>0</v>
@@ -3086,7 +3080,7 @@
         <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -3121,12 +3115,12 @@
         <v>14</v>
       </c>
       <c r="L65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B66" s="3">
         <v>1</v>
@@ -3141,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="F66" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -3153,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3191,7 +3185,7 @@
         <v>38</v>
       </c>
       <c r="L67" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -3199,10 +3193,10 @@
         <v>101</v>
       </c>
       <c r="B68" s="3">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="C68" s="3">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -3223,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L68" t="s">
         <v>133</v>
@@ -3234,10 +3228,10 @@
         <v>102</v>
       </c>
       <c r="B69" s="3">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="C69" s="3">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="D69" s="3">
         <v>0</v>
@@ -3246,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="F69" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -3269,20 +3263,20 @@
         <v>103</v>
       </c>
       <c r="B70" s="3">
+        <v>1</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="4">
         <v>2</v>
       </c>
-      <c r="C70" s="3">
-        <v>2</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="4">
-        <v>6</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -3293,10 +3287,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L70" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -3316,7 +3310,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71" s="3">
         <v>0</v>
@@ -3331,12 +3325,12 @@
         <v>38</v>
       </c>
       <c r="L71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="B72" s="3">
         <v>1</v>
@@ -3351,7 +3345,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" s="3">
         <v>0</v>
@@ -3363,21 +3357,21 @@
         <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L72" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="B73" s="3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C73" s="3">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="D73" s="3">
         <v>0</v>
@@ -3386,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G73" s="3">
         <v>0</v>
@@ -3398,21 +3392,21 @@
         <v>0</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L73" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B74" s="3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C74" s="3">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D74" s="3">
         <v>0</v>
@@ -3421,7 +3415,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74" s="3">
         <v>0</v>
@@ -3433,21 +3427,21 @@
         <v>0</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="L74" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D75" s="3">
         <v>0</v>
@@ -3456,7 +3450,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="4">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G75" s="3">
         <v>0</v>
@@ -3471,47 +3465,12 @@
         <v>14</v>
       </c>
       <c r="L75" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B76" s="3">
-        <v>2</v>
-      </c>
-      <c r="C76" s="3">
-        <v>2</v>
-      </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="4">
-        <v>9</v>
-      </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L76">
-    <sortCondition ref="A2:A76"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L75">
+    <sortCondition ref="A2:A75"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="J15" r:id="rId1" xr:uid="{AEF5654E-B282-47F2-9EFE-A7AFA3BCED75}"/>
